--- a/biology/Histoire de la zoologie et de la botanique/Inez_Clare_Verdoorn/Inez_Clare_Verdoorn.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Inez_Clare_Verdoorn/Inez_Clare_Verdoorn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inez Clare Verdoorn est une botaniste sud-africaine, née le 15 juin 1896 à Pretoria et morte le 2 avril 1989[1]. Elle est connue pour ses travaux de botanique et de taxonomie, notamment des révisions majeures de genres et de familles de plantes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inez Clare Verdoorn est une botaniste sud-africaine, née le 15 juin 1896 à Pretoria et morte le 2 avril 1989. Elle est connue pour ses travaux de botanique et de taxonomie, notamment des révisions majeures de genres et de familles de plantes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle entre en 1916 à Loreto Convent, à Pretoria, puis travaille pour un temps au bureau du Contrôleur et Auditeur général avant d'être recrutée comme assistante-responsable à l'herbier de la division de la Botanique et des Pathologies végétales. Elle part pour la Grande-Bretagne où, entre 1925 et 1927, elle travaille aux Kew Gardens comme chargée de liaison pour l'Herbier National de Pretoria. À son retour à Pretoria, elle assume la charge de l'herbier et est promue au grade de Responsable en chef en 1944. Malgré le fait qu'elle est arrivée à l'âge de la retraite en 1951, Mademoiselle Verdoorn opta pour un travail d'employée temporaire jusqu'en 1968 et, ensuite, comme chercheuse bénévole. Elle meurt en 1989.
 </t>
@@ -542,7 +556,9 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a plus de 200 publications de botanique à son crédit, y compris des révisions majeures  parues principalement dans Bothalia, Flowering Plants of Africa (Plantes à fleur d'Afrique), Flora of Southern Africa (Flore d'Afrique du Sud), Kew Bulletin (Bulletin de Kew), et le Journal of South African Botany (Journal de Botanique sud-Africaine).
 </t>
@@ -573,7 +589,9 @@
           <t>Hommages et collaborations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1952 Senior Capt. Scott Medal de la Société de Biologie d'Afrique du Sud (SA Biological Society),
 1957 Présidente de la SA Biological Society,
